--- a/Statistics/UsePage.xlsx
+++ b/Statistics/UsePage.xlsx
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
